--- a/source/sample.xlsx
+++ b/source/sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toktarkhan_n\Documents\NetBeansProjects\pdf-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toktarkhan_n\Documents\NetBeansProjects\pdf-generator\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A71DBE2-BFFC-4FD3-94A4-748AEC7B27DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2E1B0-4BF4-4BFE-9FB1-A286B368E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="5820" windowWidth="23010" windowHeight="12360" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
+    <workbookView xWindow="12750" yWindow="8700" windowWidth="23010" windowHeight="12255" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Grade</t>
   </si>
@@ -54,44 +54,173 @@
     <t>School</t>
   </si>
   <si>
-    <t>Toktarkhan</t>
-  </si>
-  <si>
-    <t>Nurdaulet</t>
-  </si>
-  <si>
-    <t>Que</t>
-  </si>
-  <si>
-    <t>Tsuk</t>
-  </si>
-  <si>
-    <t>Namee</t>
-  </si>
-  <si>
-    <t>Surnamee</t>
-  </si>
-  <si>
-    <t>Джон</t>
-  </si>
-  <si>
-    <t>Уик</t>
-  </si>
-  <si>
-    <t>Астана МБ</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>tempFile/tempDir</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>nameFile</t>
+  </si>
+  <si>
+    <t>School1</t>
+  </si>
+  <si>
+    <t>School2</t>
+  </si>
+  <si>
+    <t>School3</t>
+  </si>
+  <si>
+    <t>School4</t>
+  </si>
+  <si>
+    <t>School5</t>
+  </si>
+  <si>
+    <t>Birthyear1</t>
+  </si>
+  <si>
+    <t>Birthyear2</t>
+  </si>
+  <si>
+    <t>Birthyear3</t>
+  </si>
+  <si>
+    <t>Birthyear4</t>
+  </si>
+  <si>
+    <t>Birthyear5</t>
+  </si>
+  <si>
+    <t>Nurdaulet1</t>
+  </si>
+  <si>
+    <t>Nurdaulet2</t>
+  </si>
+  <si>
+    <t>Nurdaulet3</t>
+  </si>
+  <si>
+    <t>Nurdaulet4</t>
+  </si>
+  <si>
+    <t>Nurdaulet5</t>
+  </si>
+  <si>
+    <t>Toktarkhan1</t>
+  </si>
+  <si>
+    <t>Toktarkhan2</t>
+  </si>
+  <si>
+    <t>Toktarkhan3</t>
+  </si>
+  <si>
+    <t>Toktarkhan4</t>
+  </si>
+  <si>
+    <t>Toktarkhan5</t>
+  </si>
+  <si>
+    <t>Grade1</t>
+  </si>
+  <si>
+    <t>Grade2</t>
+  </si>
+  <si>
+    <t>Grade3</t>
+  </si>
+  <si>
+    <t>Grade4</t>
+  </si>
+  <si>
+    <t>Grade5</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Год1</t>
+  </si>
+  <si>
+    <t>Год3</t>
+  </si>
+  <si>
+    <t>Год4</t>
+  </si>
+  <si>
+    <t>Год5</t>
+  </si>
+  <si>
+    <t>Класс1</t>
+  </si>
+  <si>
+    <t>Класс3</t>
+  </si>
+  <si>
+    <t>Класс5</t>
+  </si>
+  <si>
+    <t>Фамилия1</t>
+  </si>
+  <si>
+    <t>Фамилия3</t>
+  </si>
+  <si>
+    <t>Фамилия4</t>
+  </si>
+  <si>
+    <t>Фамилия5</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>test6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +235,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,151 +583,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F114DE-19ED-4AAA-BA45-D64FEE838994}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="C1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1994</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1167</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1839</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>3849</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>1970</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AE0DC2-F6DF-4402-9A2F-19B649DDCCF3}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDDE512-6849-4FF0-A5C8-E8C003DABB54}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/sample.xlsx
+++ b/source/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toktarkhan_n\Documents\NetBeansProjects\pdf-generator\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\pdf-generator\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2E1B0-4BF4-4BFE-9FB1-A286B368E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1EAE9-B508-4473-8C8D-FC861921A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="8700" windowWidth="23010" windowHeight="12255" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Grade</t>
   </si>
@@ -214,13 +214,19 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>941124351730</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,9 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,19 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F114DE-19ED-4AAA-BA45-D64FEE838994}">
-  <dimension ref="C1:I7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
@@ -615,7 +633,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
@@ -635,7 +656,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>42</v>
@@ -645,7 +669,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
@@ -665,7 +692,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
@@ -683,7 +713,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
@@ -703,7 +736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="I7" t="s">
         <v>58</v>
       </c>
@@ -711,6 +744,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -722,17 +756,17 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -755,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -775,7 +809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -795,7 +829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -815,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -835,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>26</v>
       </c>
